--- a/Figures/summaries_csvs/summary table and cf model output.xlsx
+++ b/Figures/summaries_csvs/summary table and cf model output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gift/Documents/GitHub/WorkingFiles/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBC317-C642-004E-9634-23EEC42B2926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31D628-E78E-6749-8791-D1017A1B1F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20140" activeTab="1" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16200" activeTab="2" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="pli" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="228">
   <si>
     <t>Community</t>
   </si>
   <si>
-    <t>Dewey-Humboldt (N=53)</t>
-  </si>
-  <si>
     <t>Globe</t>
   </si>
   <si>
@@ -202,15 +199,6 @@
     <t>Gmean (gsd)</t>
   </si>
   <si>
-    <t>Globe/Miami (N=123)</t>
-  </si>
-  <si>
-    <t>Hayden/Winkelman (N=88)</t>
-  </si>
-  <si>
-    <t>Tucson (N=307)</t>
-  </si>
-  <si>
     <t>1.23 (2.07)</t>
   </si>
   <si>
@@ -719,6 +707,21 @@
   </si>
   <si>
     <t>Dewey</t>
+  </si>
+  <si>
+    <t>Overall (N=____)</t>
+  </si>
+  <si>
+    <t>Tucson (n=307)</t>
+  </si>
+  <si>
+    <t>Hayden/Winkelman (n=88)</t>
+  </si>
+  <si>
+    <t>Globe/Miami (n=123)</t>
+  </si>
+  <si>
+    <t>Dewey-Humboldt (n=53)</t>
   </si>
 </sst>
 </file>
@@ -1474,178 +1477,178 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E0EF23-59E7-1E4A-B63F-265B7AE2CFD3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1669,132 +1672,132 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1806,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEA46E9-69F0-3B4F-B208-B43EA7B90D7A}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1819,751 +1822,754 @@
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Figures/summaries_csvs/summary table and cf model output.xlsx
+++ b/Figures/summaries_csvs/summary table and cf model output.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalpalawat/Documents/GitHub/project-harvest-fork/Figures/summaries_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31D628-E78E-6749-8791-D1017A1B1F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5994FEAD-A98D-0344-B24B-54279F47DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="16200" activeTab="2" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{72327930-6813-6348-93C5-5B78A6BEE9FB}"/>
   </bookViews>
   <sheets>
     <sheet name="pli" sheetId="1" r:id="rId1"/>
     <sheet name="relevant analytes" sheetId="3" r:id="rId2"/>
     <sheet name="cfactor" sheetId="2" r:id="rId3"/>
+    <sheet name="Exceedances" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="245">
   <si>
     <t>Community</t>
   </si>
@@ -722,13 +723,67 @@
   </si>
   <si>
     <t>Dewey-Humboldt (n=53)</t>
+  </si>
+  <si>
+    <t>Table X. Description of exceedances of standards/recommendations/maximum levels</t>
+  </si>
+  <si>
+    <t>Contaminant</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>U.S. EPA Drinking Water Standard/Action Level</t>
+  </si>
+  <si>
+    <t>USDA Livestock and Poultry Drinking Water Recommended Upper Limit</t>
+  </si>
+  <si>
+    <t>ADEQ Surface Water Full Body Contact Standard</t>
+  </si>
+  <si>
+    <t>ADEQ Surface Water Partial Body Contact Standard</t>
+  </si>
+  <si>
+    <t>USDA Recommended Maximum Irrigation Concentration For Continuous Use On All Soils</t>
+  </si>
+  <si>
+    <t>Dewey-Humboldt</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>No standards found for Sn</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -765,8 +820,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,8 +878,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -806,11 +893,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -820,9 +937,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1809,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEA46E9-69F0-3B4F-B208-B43EA7B90D7A}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2576,4 +2738,2502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312CDEB9-360E-C84D-ABC7-CCD81CFE5BEA}">
+  <dimension ref="A2:S112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="12.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="15.83203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="9"/>
+    <col min="11" max="15" width="10.83203125" style="10"/>
+    <col min="16" max="16" width="10.83203125" style="11"/>
+    <col min="17" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="120" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
+      <c r="C6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="13">
+        <v>53</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13">
+        <v>124</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13">
+        <v>93</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="27"/>
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13">
+        <v>307</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="13">
+        <v>577</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="13">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13">
+        <v>124</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.52</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
+        <v>93</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="27"/>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13">
+        <v>307</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="27"/>
+      <c r="C16" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="13">
+        <v>577</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="27"/>
+      <c r="C18" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="13">
+        <v>53</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G18" s="22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="27"/>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="13">
+        <v>124</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="13">
+        <v>93</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H20" s="22">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="13">
+        <v>307</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="22">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="13">
+        <v>577</v>
+      </c>
+      <c r="E22" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="F22" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G22" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H22" s="22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="13">
+        <v>53</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="13">
+        <v>124</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="13">
+        <v>93</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="13">
+        <v>307</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="27"/>
+      <c r="C28" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="13">
+        <v>577</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="27"/>
+      <c r="C30" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="13">
+        <v>53</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="27"/>
+      <c r="C31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13">
+        <v>124</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>8.1000000000000013E-3</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="27"/>
+      <c r="C32" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="13">
+        <v>93</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
+      <c r="C33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="13">
+        <v>307</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
+      <c r="C34" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="13">
+        <v>577</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="27"/>
+      <c r="C36" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="13">
+        <v>53</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="27"/>
+      <c r="C37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="13">
+        <v>124</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F37" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="27"/>
+      <c r="C38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="13">
+        <v>93</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="27"/>
+      <c r="C39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="13">
+        <v>307</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="27"/>
+      <c r="C40" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="13">
+        <v>577</v>
+      </c>
+      <c r="E40" s="10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="27"/>
+      <c r="C42" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="13">
+        <v>53</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="27"/>
+      <c r="C43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="13">
+        <v>124</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="27"/>
+      <c r="C44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="13">
+        <v>93</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="27"/>
+      <c r="C45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="13">
+        <v>307</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="27"/>
+      <c r="C46" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="13">
+        <v>577</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="27"/>
+      <c r="C48" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="13">
+        <v>53</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="27"/>
+      <c r="C49" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="13">
+        <v>124</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="27"/>
+      <c r="C50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="13">
+        <v>93</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="27"/>
+      <c r="C51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="13">
+        <v>307</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="27"/>
+      <c r="C52" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="13">
+        <v>577</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="27"/>
+      <c r="C54" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="13">
+        <v>53</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="27"/>
+      <c r="C55" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="13">
+        <v>124</v>
+      </c>
+      <c r="E55" s="10">
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G55" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="27"/>
+      <c r="C56" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="13">
+        <v>93</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="F56" s="10">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="G56" s="10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H56" s="10">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="I56" s="10">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="27"/>
+      <c r="C57" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="13">
+        <v>307</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="27"/>
+      <c r="C58" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="13">
+        <v>577</v>
+      </c>
+      <c r="E58" s="10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F58" s="10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="G58" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H58" s="10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I58" s="10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="27"/>
+      <c r="C60" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="13">
+        <v>53</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="27"/>
+      <c r="C61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="13">
+        <v>124</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="27"/>
+      <c r="C62" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="13">
+        <v>93</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="G62" s="10">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="27"/>
+      <c r="C63" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63" s="13">
+        <v>307</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="G63" s="10">
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="27"/>
+      <c r="C64" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="13">
+        <v>577</v>
+      </c>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G64" s="10">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="27"/>
+      <c r="C66" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="13">
+        <v>53</v>
+      </c>
+      <c r="E66" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F66" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G66" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="27"/>
+      <c r="C67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="13">
+        <v>124</v>
+      </c>
+      <c r="E67" s="10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F67" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="G67" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="27"/>
+      <c r="C68" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="13">
+        <v>93</v>
+      </c>
+      <c r="E68" s="10">
+        <v>2.2000000000000002E-2</v>
+      </c>
+      <c r="F68" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G68" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+      <c r="I68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="27"/>
+      <c r="C69" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="13">
+        <v>307</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G69" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="27"/>
+      <c r="C70" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="13">
+        <v>577</v>
+      </c>
+      <c r="E70" s="10">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="G70" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="27"/>
+      <c r="C72" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="13">
+        <v>53</v>
+      </c>
+      <c r="E72" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="27"/>
+      <c r="C73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="13">
+        <v>124</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="27"/>
+      <c r="C74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="13">
+        <v>93</v>
+      </c>
+      <c r="E74" s="10">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="27"/>
+      <c r="C75" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="13">
+        <v>307</v>
+      </c>
+      <c r="E75" s="10">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="27"/>
+      <c r="C76" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="13">
+        <v>577</v>
+      </c>
+      <c r="E76" s="10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="27"/>
+      <c r="C78" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="13">
+        <v>53</v>
+      </c>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="27"/>
+      <c r="C79" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="13">
+        <v>124</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="27"/>
+      <c r="C80" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="13">
+        <v>93</v>
+      </c>
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="27"/>
+      <c r="C81" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="13">
+        <v>307</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="27"/>
+      <c r="C82" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="13">
+        <v>577</v>
+      </c>
+      <c r="E82" s="10">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="F82" s="10">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="27"/>
+      <c r="C84" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="13">
+        <v>53</v>
+      </c>
+      <c r="E84" s="22">
+        <v>0</v>
+      </c>
+      <c r="F84" s="22">
+        <v>0</v>
+      </c>
+      <c r="G84" s="22">
+        <v>0</v>
+      </c>
+      <c r="H84" s="22">
+        <v>0</v>
+      </c>
+      <c r="I84" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="27"/>
+      <c r="C85" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="13">
+        <v>124</v>
+      </c>
+      <c r="E85" s="22">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I85" s="22">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="27"/>
+      <c r="C86" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="13">
+        <v>93</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I86" s="22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="27"/>
+      <c r="C87" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="13">
+        <v>307</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G87" s="22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H87" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I87" s="22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="27"/>
+      <c r="C88" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" s="13">
+        <v>577</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G88" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H88" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I88" s="22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="27"/>
+      <c r="C90" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="13">
+        <v>53</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" s="10">
+        <v>0</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="27"/>
+      <c r="C91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="13">
+        <v>124</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="27"/>
+      <c r="C92" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="13">
+        <v>93</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F92" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="27"/>
+      <c r="C93" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D93" s="13">
+        <v>307</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F93" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="27"/>
+      <c r="C94" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="13">
+        <v>577</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" s="10">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+      <c r="I94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="27"/>
+      <c r="C96" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="13">
+        <v>53</v>
+      </c>
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+      <c r="I96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" s="27"/>
+      <c r="C97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="13">
+        <v>124</v>
+      </c>
+      <c r="E97" s="10">
+        <v>0</v>
+      </c>
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="27"/>
+      <c r="C98" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="13">
+        <v>93</v>
+      </c>
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
+      <c r="F98" s="10">
+        <v>0</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="27"/>
+      <c r="C99" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D99" s="13">
+        <v>307</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="I99" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="27"/>
+      <c r="C100" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100" s="13">
+        <v>577</v>
+      </c>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="I100" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="27"/>
+      <c r="C102" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="13">
+        <v>53</v>
+      </c>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="27"/>
+      <c r="C103" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="13">
+        <v>124</v>
+      </c>
+      <c r="E103" s="10">
+        <v>0</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="27"/>
+      <c r="C104" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="13">
+        <v>93</v>
+      </c>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G104" s="10">
+        <v>0</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="27"/>
+      <c r="C105" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="13">
+        <v>307</v>
+      </c>
+      <c r="E105" s="10">
+        <v>0</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" s="10">
+        <v>0</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="27"/>
+      <c r="C106" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D106" s="13">
+        <v>577</v>
+      </c>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="27"/>
+      <c r="C108" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="13">
+        <v>53</v>
+      </c>
+      <c r="E108" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F108" s="10">
+        <v>0</v>
+      </c>
+      <c r="G108" s="10">
+        <v>0</v>
+      </c>
+      <c r="H108" s="10">
+        <v>0</v>
+      </c>
+      <c r="I108" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="27"/>
+      <c r="C109" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="13">
+        <v>124</v>
+      </c>
+      <c r="E109" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F109" s="10">
+        <v>0</v>
+      </c>
+      <c r="G109" s="10">
+        <v>0</v>
+      </c>
+      <c r="H109" s="10">
+        <v>0</v>
+      </c>
+      <c r="I109" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="27"/>
+      <c r="C110" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="13">
+        <v>93</v>
+      </c>
+      <c r="E110" s="10">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="F110" s="10">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G110" s="10">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10">
+        <v>0</v>
+      </c>
+      <c r="I110" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="27"/>
+      <c r="C111" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" s="13">
+        <v>307</v>
+      </c>
+      <c r="E111" s="10">
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="F111" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G111" s="10">
+        <v>0</v>
+      </c>
+      <c r="H111" s="10">
+        <v>0</v>
+      </c>
+      <c r="I111" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="27"/>
+      <c r="C112" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="13">
+        <v>577</v>
+      </c>
+      <c r="E112" s="10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F112" s="10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G112" s="10">
+        <v>0</v>
+      </c>
+      <c r="H112" s="10">
+        <v>0</v>
+      </c>
+      <c r="I112" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>